--- a/4_classification&evaluation/output/evaluation_recall_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_recall_standard_deviation.xlsx
@@ -1156,127 +1156,127 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8069778082818578</v>
+        <v>0.8305879661404714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04011807248845307</v>
+        <v>0.0361509544709699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8240448409974835</v>
+        <v>0.8112331274307939</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01273105965614937</v>
+        <v>0.03653407699835858</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8191489361702128</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="N6" t="n">
         <v>0.8172043010752689</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7532601235415237</v>
+        <v>0.7253717684740335</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05289464850993117</v>
+        <v>0.02626879524596896</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7340425531914894</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="V6" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.7962251201098148</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.02548656950758862</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.7553191489361702</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7849462365591398</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.8172043010752689</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.7956989247311828</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8090597117364448</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.01351595817665398</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.8172043010752689</v>
       </c>
       <c r="AC6" t="n">
         <v>0.8279569892473119</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8005033173186915</v>
+        <v>0.7940288263555251</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03028073501380591</v>
+        <v>0.02357546057468482</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="AH6" t="n">
         <v>0.7956989247311828</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8198123999084878</v>
+        <v>0.8219629375428964</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.04599197961379185</v>
+        <v>0.04851581611932004</v>
       </c>
       <c r="AM6" t="n">
         <v>0.7872340425531915</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="AO6" t="n">
         <v>0.8494623655913979</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.8924731182795699</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8455044612216884</v>
+        <v>0.8433539235872798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05112422822585169</v>
+        <v>0.04976362478805044</v>
       </c>
       <c r="D7" t="n">
         <v>0.8404255319148937</v>
@@ -1301,7 +1301,7 @@
         <v>0.7634408602150538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="G7" t="n">
         <v>0.8279569892473119</v>
@@ -1310,10 +1310,10 @@
         <v>0.9139784946236559</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8627316403568978</v>
+        <v>0.8584305650880806</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03180099708456316</v>
+        <v>0.03111597825317717</v>
       </c>
       <c r="K7" t="n">
         <v>0.8297872340425532</v>
@@ -1322,40 +1322,40 @@
         <v>0.8279569892473119</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="O7" t="n">
         <v>0.9139784946236559</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8305422100205903</v>
+        <v>0.8283687943262411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04123738414487432</v>
+        <v>0.04643950885054888</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7978723404255319</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="U7" t="n">
         <v>0.7956989247311828</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8455044612216884</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03777277858459355</v>
+        <v>0.03367115730482832</v>
       </c>
       <c r="Y7" t="n">
         <v>0.8404255319148937</v>
@@ -1370,40 +1370,40 @@
         <v>0.8494623655913979</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8690459849004805</v>
+        <v>0.8562113932738503</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04227246436559602</v>
+        <v>0.03511569808548161</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8617021276595744</v>
       </c>
       <c r="AG7" t="n">
         <v>0.7956989247311828</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="AI7" t="n">
         <v>0.8494623655913979</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8347517730496454</v>
+        <v>0.8369251887439946</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.03092142249156455</v>
+        <v>0.02477828029829682</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="AO7" t="n">
         <v>0.8387096774193549</v>
